--- a/Use cases et scénarios/Scénarios.xlsx
+++ b/Use cases et scénarios/Scénarios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="162">
   <si>
     <t>Identifiant</t>
   </si>
@@ -86,38 +86,453 @@
     <t>Générer un environnement</t>
   </si>
   <si>
-    <t>Obtenir un environnement souhaité</t>
-  </si>
-  <si>
-    <t>Je selectionne les propriétés du terrain</t>
-  </si>
-  <si>
-    <t>Les propriétés du terrain s'affichent</t>
-  </si>
-  <si>
-    <t>Je rentre une valeur personalisée dans la hauteur min/max</t>
-  </si>
-  <si>
-    <t>La valeur de la hauteur min/max se met a jour</t>
-  </si>
-  <si>
-    <t>Une liste déroulante avec les différents reliefs s'affiche</t>
-  </si>
-  <si>
-    <t>Je clique sur le type de relief</t>
-  </si>
-  <si>
-    <t>Je selectionne le type de relief désiré</t>
-  </si>
-  <si>
-    <t>la valeur de la liste déroulante se met a jour</t>
+    <t>Je clique sur annuler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exporter ma scene finale  </t>
+  </si>
+  <si>
+    <t>pour l'utiliser dans un logiciel tier</t>
+  </si>
+  <si>
+    <t>Je clique sur le menu (…)</t>
+  </si>
+  <si>
+    <t>Le panel de menu principal s'affiche</t>
+  </si>
+  <si>
+    <t>Le fond se grise
+Une boite de dialoge (OK/Cancel) avec un text Input s'affiche</t>
+  </si>
+  <si>
+    <t>Je clique sur exporter ma carte</t>
+  </si>
+  <si>
+    <t>J'entre le nom du fichier désiré</t>
+  </si>
+  <si>
+    <t>Le text input se met à jour</t>
+  </si>
+  <si>
+    <t>un fichier est généré (par défaut .obj)</t>
+  </si>
+  <si>
+    <t>La fenetre se ferme et retourne vers le menu principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sauvegarder ma scene </t>
+  </si>
+  <si>
+    <t>pour la modifier plus tard</t>
+  </si>
+  <si>
+    <t>Je clique sur sauvegarder mon projet</t>
+  </si>
+  <si>
+    <t>un fichier (.map) est généré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me connecter </t>
+  </si>
+  <si>
+    <t>Pour acceder a mes projet "en ligne"</t>
+  </si>
+  <si>
+    <t>Je clique sur me connecter</t>
+  </si>
+  <si>
+    <t>Le fond se grise
+Une boite de dialoge (OK/Cancel) avec un champ login/mot de passe</t>
+  </si>
+  <si>
+    <t>J'entre mon login</t>
+  </si>
+  <si>
+    <t>Le texte de login se met a jour</t>
+  </si>
+  <si>
+    <t>j'entre mon mot de passe</t>
+  </si>
+  <si>
+    <t>le texte de mot de passe se met a jour</t>
+  </si>
+  <si>
+    <t>je clique sur valider</t>
+  </si>
+  <si>
+    <t>un texte "connexion" s'affiche
+- La connexion est réussie
+- La connexion à échouée</t>
+  </si>
+  <si>
+    <t>je clique sur créer  compte</t>
+  </si>
+  <si>
+    <t>la boite de dialogue se met à jour avec
+- une entrée pour 
+nom
+prenom
+email</t>
+  </si>
+  <si>
+    <t>je clique sur le champ non</t>
+  </si>
+  <si>
+    <t>le champ non se focus</t>
+  </si>
+  <si>
+    <t>j'entre du texte dans le champ nom</t>
+  </si>
+  <si>
+    <t>le texte du champ nom se met a jour</t>
+  </si>
+  <si>
+    <t>je clique sur le champ prenom</t>
+  </si>
+  <si>
+    <t>le champ prenom se  focus</t>
+  </si>
+  <si>
+    <t>j'entre du texte dans le champ prenom</t>
+  </si>
+  <si>
+    <t>le texte du champ prenom se met a jour</t>
+  </si>
+  <si>
+    <t>je clique sur le champ email</t>
+  </si>
+  <si>
+    <t>le champ email se focus</t>
+  </si>
+  <si>
+    <t>j'entre du texte dans le champ email</t>
+  </si>
+  <si>
+    <t>le texte de champ email set met a jour</t>
+  </si>
+  <si>
+    <t>Un texte s'affiche création du compre réussi/echoué</t>
+  </si>
+  <si>
+    <t>Créer un compte</t>
+  </si>
+  <si>
+    <t>Intérargir avec l'environnement</t>
+  </si>
+  <si>
+    <t>pour connaitre des details sur l'objet</t>
+  </si>
+  <si>
+    <t>Je clique sur lancer "la simulation"</t>
+  </si>
+  <si>
+    <t>le panel d'édition disparait</t>
+  </si>
+  <si>
+    <t>Je roule avec la mollete de souris</t>
+  </si>
+  <si>
+    <t>la scène zoome/dézoome</t>
+  </si>
+  <si>
+    <t>je passe par dessu un objet</t>
+  </si>
+  <si>
+    <t>un panneau d'information minimale s'affiche a la position de la souris</t>
+  </si>
+  <si>
+    <t>j'effectue un clic droit sur un objet</t>
+  </si>
+  <si>
+    <t>un panneau d'information détaillé s'affiche a droite</t>
+  </si>
+  <si>
+    <t>j'appuie sur ech</t>
+  </si>
+  <si>
+    <t>le menu de simulation apparait</t>
+  </si>
+  <si>
+    <t>je clique sur arreter la simulation</t>
+  </si>
+  <si>
+    <t>je retourne vers l'interface d'édition</t>
+  </si>
+  <si>
+    <t>je clique sur passer en mode jeu</t>
+  </si>
+  <si>
+    <t>l'utilisateur  se "transforme" en un personnage qui peut se ballader dans le terrain généré</t>
+  </si>
+  <si>
+    <t>je clique sur option</t>
+  </si>
+  <si>
+    <t>un paneau avec divers options s'affiche</t>
+  </si>
+  <si>
+    <t>je clique sur aide</t>
+  </si>
+  <si>
+    <t>un paneau d'aide s'affiche avec les différent controles</t>
+  </si>
+  <si>
+    <t>je clique sur la croix</t>
+  </si>
+  <si>
+    <t>la fenetre se fermet et on retourne vers la simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intérargir en mode jeu </t>
+  </si>
+  <si>
+    <t>pour simuler un jeu</t>
+  </si>
+  <si>
+    <t>Je clique sur lancer "la simulation en mode jeu"</t>
+  </si>
+  <si>
+    <t>Je lique sur w</t>
+  </si>
+  <si>
+    <t>le "personnage" avance</t>
+  </si>
+  <si>
+    <t>je clique sur d</t>
+  </si>
+  <si>
+    <t>le "personnage" se déplace à droite</t>
+  </si>
+  <si>
+    <t>je clique sur a</t>
+  </si>
+  <si>
+    <t>le "personnage" se déplace a gauche</t>
+  </si>
+  <si>
+    <t>je clique sur s</t>
+  </si>
+  <si>
+    <t>le "personnage" se déplace a droite</t>
+  </si>
+  <si>
+    <t>je clique sur espace</t>
+  </si>
+  <si>
+    <t>le "personnage" saute</t>
+  </si>
+  <si>
+    <t>Ouvrir un projet</t>
+  </si>
+  <si>
+    <t>continuer a travailler dessu</t>
+  </si>
+  <si>
+    <t>Je lance l'application</t>
+  </si>
+  <si>
+    <t>La fenetre principale( menu princpal) s'affiche</t>
+  </si>
+  <si>
+    <t>je clique sur ouvrir un projet(local/enligne(doit être connecté))</t>
+  </si>
+  <si>
+    <t>Une liste de projet présent sur le disque s'affiche</t>
+  </si>
+  <si>
+    <t>je clique sur un fichier</t>
+  </si>
+  <si>
+    <t>le fichier se sélectionne</t>
+  </si>
+  <si>
+    <t>je clique sur ouvrir le fichier</t>
+  </si>
+  <si>
+    <t>le panneau principal se ferme et le menu d'édition s'ouvre</t>
+  </si>
+  <si>
+    <t>je double-clique sur un fichier</t>
+  </si>
+  <si>
+    <t>le planneau principal se ferme et le menu d'édition s'ouvre</t>
+  </si>
+  <si>
+    <t>Quitter l'application</t>
+  </si>
+  <si>
+    <t>arrêter de travailler</t>
+  </si>
+  <si>
+    <t>Je clique sur la croix de l'application</t>
+  </si>
+  <si>
+    <t>La fenetre se ferme</t>
+  </si>
+  <si>
+    <t>Je retourne au menu principal</t>
+  </si>
+  <si>
+    <t>le menu principal s'affiche</t>
+  </si>
+  <si>
+    <t>je clique sur quitter l'application</t>
+  </si>
+  <si>
+    <t>Utlisateur</t>
+  </si>
+  <si>
+    <t>Sélectionner un environnement prédifini</t>
+  </si>
+  <si>
+    <t>Obtenir un template de relief</t>
+  </si>
+  <si>
+    <t>Je créer/ouvre un projet</t>
+  </si>
+  <si>
+    <t>la fenêtre d'édition s'ouvre</t>
+  </si>
+  <si>
+    <t>Je clique sur environement prédéfini</t>
+  </si>
+  <si>
+    <t>une liste box avec divers environnement se créé</t>
+  </si>
+  <si>
+    <t>je clique sur un environnement prédéfini</t>
+  </si>
+  <si>
+    <t>toute les valeurs sont mise a jour et un terrain se génère respectant les valeurs générées</t>
+  </si>
+  <si>
+    <t>Modifier les valeurs d'environnement</t>
+  </si>
+  <si>
+    <t>Obtenir des valeurs plus presonnalisées</t>
+  </si>
+  <si>
+    <t>Je clique sur terrain</t>
+  </si>
+  <si>
+    <t>le paneau principal est remplacé par un panneau avec les propriétés du terrain</t>
+  </si>
+  <si>
+    <t>Je clique sur générer un nouveau heighMap</t>
+  </si>
+  <si>
+    <t>un preview du heigmap est afficher</t>
+  </si>
+  <si>
+    <t>j'entre les valeurs des dimensions du terrain (hauteur min/max,longeur,largeur,profondeur min/max</t>
+  </si>
+  <si>
+    <t>Les valeurs se mettent à jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je clique sur générer le terrain </t>
+  </si>
+  <si>
+    <t>Un preview de terrain est affiché</t>
+  </si>
+  <si>
+    <t>Je clique sur valider le terrain</t>
+  </si>
+  <si>
+    <t>je clique sur annuler</t>
+  </si>
+  <si>
+    <t>Les valeurs et la scène principale sont mise a jour
+Le panneau des propriétés se ferme
+Le panneau d'édition principal s'affiche</t>
+  </si>
+  <si>
+    <t>Rien n'est modifié des valeurs par défaut
+Le panneau des propriétés se ferme
+Le panneau d'édition principal s'affiche</t>
+  </si>
+  <si>
+    <t>Je clique sur arbres</t>
+  </si>
+  <si>
+    <t>Le paneau principal est remplacé par un panneau avec les propriétés des arbres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur les types d'arbres </t>
+  </si>
+  <si>
+    <t>une combobox de types d'arbre disponible s'affiche</t>
+  </si>
+  <si>
+    <t>Je clique sur un type d'arbre</t>
+  </si>
+  <si>
+    <t>Un type d'arbre est rajouté dans un boite d'information</t>
+  </si>
+  <si>
+    <t>Je clique sur générer la disposition des arbres</t>
+  </si>
+  <si>
+    <t>une minicarte est mise a jour avec le terrain précédement généré et des icones de types d'arbres dessu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je clique sur génerer </t>
+  </si>
+  <si>
+    <t>Le preview se met a jour avec les arbres placés aux bons endroit</t>
+  </si>
+  <si>
+    <t>les valeurs et la scène principale sont mise à jour
+le panneau des propriétés se ferme
+le panneau d'édition principal s'affiche</t>
+  </si>
+  <si>
+    <t>Je clique sur texture du terrain</t>
+  </si>
+  <si>
+    <t>le paneau principal est remplacé par un panneau avec les propriétés de texture du terrain</t>
+  </si>
+  <si>
+    <t>Je clique sur environement aquatique</t>
+  </si>
+  <si>
+    <t>le paneau principal est remplacé par un panneau avec les propriétés de l'environnement aquatique</t>
+  </si>
+  <si>
+    <t>Je clique sur les types de flux disponibles</t>
+  </si>
+  <si>
+    <t>une liste avec les flux disponibles s'affiche(rivière,fleuve,lac,mer)</t>
+  </si>
+  <si>
+    <t>Je clique sur un type de flux</t>
+  </si>
+  <si>
+    <t>Un type de flux se met a jour dans un groupe</t>
+  </si>
+  <si>
+    <t>Je clique sur générer un environnement aquatique</t>
+  </si>
+  <si>
+    <t>Une minicare se met a jour avec le terrain généré précédement
+En gris le terrain
+En bleu les flux aquatiques</t>
+  </si>
+  <si>
+    <t>Je clique sur valider les arbres</t>
+  </si>
+  <si>
+    <t>Je clique sur générer textures</t>
+  </si>
+  <si>
+    <t>La carte se met ajour avec un terrain correspondant au relief( pentu-&gt;rocher, eau sable/terre, plaines -&gt; herbe,… )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +553,15 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +578,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE7F3F4"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,10 +648,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -246,8 +675,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60 % - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,326 +959,1046 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F56"/>
+  <dimension ref="B2:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" customWidth="1"/>
+    <col min="9" max="9" width="44.85546875" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" customWidth="1"/>
+    <col min="12" max="12" width="45.42578125" customWidth="1"/>
+    <col min="14" max="14" width="33" customWidth="1"/>
+    <col min="15" max="15" width="41.28515625" customWidth="1"/>
+    <col min="17" max="17" width="31.28515625" customWidth="1"/>
+    <col min="18" max="18" width="40.7109375" customWidth="1"/>
+    <col min="20" max="21" width="39.85546875" customWidth="1"/>
+    <col min="23" max="24" width="38" customWidth="1"/>
+    <col min="26" max="26" width="33.85546875" customWidth="1"/>
+    <col min="27" max="27" width="45.28515625" customWidth="1"/>
+    <col min="29" max="30" width="52.140625" customWidth="1"/>
+    <col min="32" max="33" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="2" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="N7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="Q7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="T7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="W7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Z7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="4"/>
+      <c r="AC7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="4"/>
+      <c r="AF7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG7" s="4"/>
+    </row>
+    <row r="8" spans="2:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="K8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="N8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="Q8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="T8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="W8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X8" s="4"/>
+      <c r="Z8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="4"/>
+      <c r="AC8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="4"/>
+      <c r="AF8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="4"/>
+    </row>
+    <row r="9" spans="2:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="L22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="7"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="7"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="7"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="4"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="4"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="4"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="4"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="4"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="4"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="4"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-      <c r="C30" s="4"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="4"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="4"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="4"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="4"/>
-      <c r="E37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="4"/>
-      <c r="E38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="4"/>
-      <c r="E39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="4"/>
-      <c r="E40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-      <c r="C41" s="4"/>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I28" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="7"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="7"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="7"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="7"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="7"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="7"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="7"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="7"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="7"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="7"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="7"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="7"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="7"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="7"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="7"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H53" s="7"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="7"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="7"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="7"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="7"/>
+      <c r="I57" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Use cases et scénarios/Scénarios.xlsx
+++ b/Use cases et scénarios/Scénarios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="157">
   <si>
     <t>Identifiant</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Réaction</t>
-  </si>
-  <si>
-    <t>EJS</t>
   </si>
   <si>
     <t>Utilisateur</t>
@@ -172,36 +169,9 @@
 email</t>
   </si>
   <si>
-    <t>je clique sur le champ non</t>
-  </si>
-  <si>
-    <t>le champ non se focus</t>
-  </si>
-  <si>
-    <t>j'entre du texte dans le champ nom</t>
-  </si>
-  <si>
-    <t>le texte du champ nom se met a jour</t>
-  </si>
-  <si>
-    <t>je clique sur le champ prenom</t>
-  </si>
-  <si>
-    <t>le champ prenom se  focus</t>
-  </si>
-  <si>
-    <t>j'entre du texte dans le champ prenom</t>
-  </si>
-  <si>
-    <t>le texte du champ prenom se met a jour</t>
-  </si>
-  <si>
     <t>je clique sur le champ email</t>
   </si>
   <si>
-    <t>le champ email se focus</t>
-  </si>
-  <si>
     <t>j'entre du texte dans le champ email</t>
   </si>
   <si>
@@ -422,12 +392,6 @@
   </si>
   <si>
     <t>Les valeurs se mettent à jour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je clique sur générer le terrain </t>
-  </si>
-  <si>
-    <t>Un preview de terrain est affiché</t>
   </si>
   <si>
     <t>Je clique sur valider le terrain</t>
@@ -523,6 +487,30 @@
   </si>
   <si>
     <t>Pour générer un terrai n personalisé</t>
+  </si>
+  <si>
+    <t>je clique sur le champ login</t>
+  </si>
+  <si>
+    <t>le champ login se focus</t>
+  </si>
+  <si>
+    <t>j'entre du texte dans le login email</t>
+  </si>
+  <si>
+    <t>le texte du champ login se met a jour</t>
+  </si>
+  <si>
+    <t>le champ email se  focus</t>
+  </si>
+  <si>
+    <t>je clique sur le champ password</t>
+  </si>
+  <si>
+    <t>le texte du champ email se met a jour</t>
+  </si>
+  <si>
+    <t>le champ password se focus</t>
   </si>
 </sst>
 </file>
@@ -982,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,68 +1015,68 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
+      <c r="C3" s="10">
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>7</v>
+      <c r="F3" s="10">
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>7</v>
+      <c r="I3" s="10">
+        <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>7</v>
+      <c r="L3" s="10">
+        <v>4</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>7</v>
+      <c r="O3" s="10">
+        <v>5</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>7</v>
+      <c r="R3" s="10">
+        <v>6</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="10">
         <v>7</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="10" t="s">
-        <v>7</v>
+      <c r="X3" s="10">
+        <v>8</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="10" t="s">
-        <v>7</v>
+      <c r="AA3" s="10">
+        <v>9</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD3" s="10" t="s">
-        <v>7</v>
+      <c r="AD3" s="10">
+        <v>10</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AG3" s="10" t="s">
-        <v>7</v>
+      <c r="AG3" s="10">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:33" s="11" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1096,67 +1084,67 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:33" s="11" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1164,67 +1152,67 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:33" s="11" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1232,67 +1220,67 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AC6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AF6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:33" s="11" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1417,499 +1405,495 @@
     </row>
     <row r="17" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="N17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="Q17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="T17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U17" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="W17" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AD17" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="T18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U18" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="W18" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD18" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AG18" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:33" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG19" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="C20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="K20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19" s="7" t="s">
+      <c r="N20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="6" t="s">
+      <c r="R20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R20" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="T20" s="6" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H21" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD21" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA22" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T21" s="6" t="s">
+      <c r="T26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="U21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="W21" s="6" t="s">
+      <c r="W26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="X21" s="7" t="s">
+      <c r="X26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Z21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD21" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="7" t="s">
+    </row>
+    <row r="27" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="T22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="X22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA22" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="X23" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="U24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="X24" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="X25" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="2:33" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="W26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="X26" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="2:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H27" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I27" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="28" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H28" s="8" t="s">
+      <c r="I28" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="29" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="6" t="s">
-        <v>158</v>
+      <c r="H29" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="8" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H31" s="6" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H32" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="8:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H33" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H34" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="8:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H35" s="6" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="8:9" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H37" s="6"/>
@@ -1987,10 +1971,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="8:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H56" s="6"/>
-      <c r="I56" s="7"/>
-    </row>
+    <row r="56" spans="8:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
